--- a/src/main/resources/caseconf/ContactPut/Case_userContactPut.xlsx
+++ b/src/main/resources/caseconf/ContactPut/Case_userContactPut.xlsx
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="111">
   <si>
     <t>lable</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -321,24 +321,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509504","1001","111111","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509504","1001","111111","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509504","1001","111111","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509504","1001","111111","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699222007535509999","1001","111111",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699222007535509999","1001","111111","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59");</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509504","1001","111111","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509504","1001","111111","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509504","1001","111111","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509504","1001","111111","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699222007535509999","1001","111111",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699222007535509999","1001","111111","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59");</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>DELETE FROM user_contact WHERE tenant_id = "1001" and tenant_user_id = "111111";
 DELETE FROM user_info_item WHERE tenant_id = "1001" and tenant_user_id = "111111";
 DELETE FROM user_basic_info WHERE tenant_id = "1001" and tenant_user_id = "111111";
@@ -351,15 +333,6 @@
   </si>
   <si>
     <t>except_data_usercontact</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509504","1001","111111","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509504","1001","111111","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509504","1001","111111","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509504","1001","111111","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699222007535509999","1001","111111",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699222007535509999","1001","111111","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59");</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -492,15 +465,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509504","1001","111111","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509504","1001","111111","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509504","1001","111111","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509504","1001","111111","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699222007535509999","1001","111111",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699222007535509999","1001","111111","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59");</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>非必传参数-contactName为空</t>
     <rPh sb="0" eb="1">
       <t>fei</t>
@@ -604,19 +568,6 @@
       <t>shi'xiao</t>
     </rPh>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509999","1001","111111","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509999","1001","111111","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509999","1001","111111","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509999","1001","111111","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699222007535509999","1001","111111",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699222007535509999","1001","111111","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59");
-insert into `seraph`.`user_contact` ( `user_id`, `tenant_id`, `tenant_user_id`, `company`, `contact_name`, `contact_phone`, `job`, `relation_type`, `create_time`, `update_time`, `yn`) values ( '699222007535509999', '1001', '111111', null, '测试自动化', '00620980987787', '工作', '3', '2020-04-17 13:29:11', '2020-04-17 13:29:11', '0');</t>
-    <rPh sb="3020" eb="3021">
-      <t>gong'zuo</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>[{
@@ -1114,19 +1065,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509999","1001","111111","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509999","1001","111111","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509999","1001","111111","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509999","1001","111111","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699222007535509999","1001","111111",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699222007535509999","1001","111111","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59");
-insert into `seraph`.`user_contact` ( `user_id`, `tenant_id`, `tenant_user_id`, `company`, `contact_name`, `contact_phone`, `job`, `relation_type`, `create_time`, `update_time`, `yn`) values ( '699222007535509999', '1001', '111111', null, '测试自动化', '00620980987787', '测试', '3', '2020-04-17 13:29:11', '2020-04-17 13:29:11', '0');</t>
-    <rPh sb="3020" eb="3021">
-      <t>ce's</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>{
     "tenantId":"1001",
     "tenantUserId":"111111",
@@ -1242,6 +1180,40 @@
     </rPh>
     <rPh sb="116" eb="117">
       <t>ce's</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509504","1001","111111","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509504","1001","111111","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509504","1001","111111","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509504","1001","111111","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699222007535509999","1001","111111",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699222007535509999","1001","111111","dca7ac134311d1a7699db2f9d2189350","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59");</t>
+  </si>
+  <si>
+    <t>insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509999","1001","111111","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509999","1001","111111","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509999","1001","111111","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509999","1001","111111","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699222007535509999","1001","111111",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699222007535509999","1001","111111","dca7ac134311d1a7699db2f9d2189350","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59");
+insert into `seraph`.`user_contact` ( `user_id`, `tenant_id`, `tenant_user_id`, `company`, `contact_name`, `contact_phone`, `job`, `relation_type`, `create_time`, `update_time`, `yn`) values ( '699222007535509999', '1001', '111111', null, '测试自动化', '00620980987787', '测试', '3', '2020-04-17 13:29:11', '2020-04-17 13:29:11', '0');</t>
+    <rPh sb="3020" eb="3021">
+      <t>ce's</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509999","1001","111111","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509999","1001","111111","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509999","1001","111111","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509999","1001","111111","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699222007535509999","1001","111111",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699222007535509999","1001","111111","dca7ac134311d1a7699db2f9d2189350","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59");
+insert into `seraph`.`user_contact` ( `user_id`, `tenant_id`, `tenant_user_id`, `company`, `contact_name`, `contact_phone`, `job`, `relation_type`, `create_time`, `update_time`, `yn`) values ( '699222007535509999', '1001', '111111', null, '测试自动化', '00620980987787', '工作', '3', '2020-04-17 13:29:11', '2020-04-17 13:29:11', '0');</t>
+    <rPh sb="3020" eb="3021">
+      <t>gong'zuo</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1729,10 +1701,10 @@
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="N4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P5" sqref="P5"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1800,46 +1772,46 @@
         <v>16</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="12" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>25</v>
       </c>
       <c r="E2" s="16"/>
       <c r="F2" s="26" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>26</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J2" s="25" t="s">
         <v>13</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="L2" s="17"/>
       <c r="M2" s="19" t="s">
@@ -1847,46 +1819,46 @@
       </c>
       <c r="N2" s="13"/>
       <c r="O2" s="28" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P2" s="27" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="Q2" s="28" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="12" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>34</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="16"/>
       <c r="F3" s="26" t="s">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>26</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J3" s="25" t="s">
         <v>13</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L3" s="17"/>
       <c r="M3" s="19" t="s">
@@ -1894,46 +1866,46 @@
       </c>
       <c r="N3" s="13"/>
       <c r="O3" s="28" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P3" s="27" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="Q3" s="28" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:17" s="12" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>35</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>36</v>
       </c>
       <c r="E4" s="16"/>
       <c r="F4" s="26" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>26</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J4" s="25" t="s">
         <v>13</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="L4" s="17"/>
       <c r="M4" s="19" t="s">
@@ -1941,44 +1913,44 @@
       </c>
       <c r="N4" s="13"/>
       <c r="O4" s="28" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P4" s="27" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="Q4" s="28"/>
     </row>
     <row r="5" spans="1:17" s="12" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>25</v>
       </c>
       <c r="E5" s="16"/>
       <c r="F5" s="26" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>26</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J5" s="25" t="s">
         <v>13</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="L5" s="17"/>
       <c r="M5" s="19" t="s">
@@ -1986,44 +1958,44 @@
       </c>
       <c r="N5" s="13"/>
       <c r="O5" s="28" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P5" s="27" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="Q5" s="28"/>
     </row>
     <row r="6" spans="1:17" s="12" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>36</v>
       </c>
       <c r="E6" s="16"/>
       <c r="F6" s="26" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>26</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J6" s="25" t="s">
         <v>13</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L6" s="17"/>
       <c r="M6" s="19" t="s">
@@ -2031,44 +2003,44 @@
       </c>
       <c r="N6" s="13"/>
       <c r="O6" s="28" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P6" s="27" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="Q6" s="28"/>
     </row>
     <row r="7" spans="1:17" s="12" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="16"/>
       <c r="F7" s="26" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J7" s="25" t="s">
         <v>13</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L7" s="17"/>
       <c r="M7" s="19" t="s">
@@ -2076,46 +2048,46 @@
       </c>
       <c r="N7" s="9"/>
       <c r="O7" s="28" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P7" s="27" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="Q7" s="28" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="12" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>25</v>
       </c>
       <c r="E8" s="22"/>
       <c r="F8" s="26" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J8" s="25" t="s">
         <v>13</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="L8" s="23"/>
       <c r="M8" s="19" t="s">
@@ -2123,13 +2095,13 @@
       </c>
       <c r="N8" s="9"/>
       <c r="O8" s="28" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P8" s="27" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="Q8" s="28" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="409" x14ac:dyDescent="0.2">
@@ -2140,40 +2112,40 @@
         <v>29</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J9" s="25" t="s">
         <v>13</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="M9" s="19" t="s">
         <v>27</v>
       </c>
       <c r="O9" s="28" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P9" s="27" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="Q9" s="28" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="409" x14ac:dyDescent="0.2">
@@ -2184,128 +2156,128 @@
         <v>30</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J10" s="25" t="s">
         <v>13</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="M10" s="19" t="s">
         <v>27</v>
       </c>
       <c r="O10" s="28" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P10" s="27" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="Q10" s="28" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="409" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J11" s="25" t="s">
         <v>13</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="M11" s="19" t="s">
         <v>27</v>
       </c>
       <c r="O11" s="28" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P11" s="27" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="28" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="409" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H12" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J12" s="25" t="s">
         <v>13</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="M12" s="19" t="s">
         <v>27</v>
       </c>
       <c r="O12" s="28" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P12" s="27" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="Q12" s="28" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="409" x14ac:dyDescent="0.2">
@@ -2313,43 +2285,43 @@
         <v>32</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H13" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J13" s="25" t="s">
         <v>13</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M13" s="19" t="s">
         <v>27</v>
       </c>
       <c r="O13" s="28" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P13" s="27" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="Q13" s="28" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="409" x14ac:dyDescent="0.2">
@@ -2357,43 +2329,43 @@
         <v>32</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H14" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J14" s="25" t="s">
         <v>13</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="M14" s="19" t="s">
         <v>27</v>
       </c>
       <c r="O14" s="28" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P14" s="27" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="Q14" s="28" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:17" s="12" customFormat="1" ht="180" x14ac:dyDescent="0.2">
@@ -2401,7 +2373,7 @@
         <v>33</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C15" s="20" t="s">
         <v>18</v>
@@ -2416,13 +2388,13 @@
         <v>14</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J15" s="25" t="s">
         <v>13</v>
       </c>
       <c r="K15" s="19" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="L15" s="17"/>
       <c r="M15" s="19" t="s">
@@ -2437,7 +2409,7 @@
         <v>33</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C16" s="20" t="s">
         <v>17</v>
@@ -2452,17 +2424,17 @@
         <v>14</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J16" s="25" t="s">
         <v>13</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="L16" s="17"/>
       <c r="M16" s="24" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="N16" s="9"/>
       <c r="O16" s="9"/>
@@ -2473,7 +2445,7 @@
         <v>33</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>19</v>
@@ -2488,17 +2460,17 @@
         <v>14</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J17" s="25" t="s">
         <v>13</v>
       </c>
       <c r="K17" s="19" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="L17" s="17"/>
       <c r="M17" s="24" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
@@ -2509,7 +2481,7 @@
         <v>33</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>20</v>
@@ -2524,17 +2496,17 @@
         <v>14</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J18" s="25" t="s">
         <v>13</v>
       </c>
       <c r="K18" s="19" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="L18" s="23"/>
       <c r="M18" s="24" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
@@ -2545,7 +2517,7 @@
         <v>33</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C19" s="20" t="s">
         <v>21</v>
@@ -2560,17 +2532,17 @@
         <v>14</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J19" s="25" t="s">
         <v>13</v>
       </c>
       <c r="K19" s="19" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="L19" s="21"/>
       <c r="M19" s="24" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
